--- a/cohesion_conflict_clean-ODKX/app/config/tables/marriages/forms/marriages/marriages.xlsx
+++ b/cohesion_conflict_clean-ODKX/app/config/tables/marriages/forms/marriages/marriages.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="104">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -243,7 +243,16 @@
     <t xml:space="preserve">person_2_name_query</t>
   </si>
   <si>
-    <t xml:space="preserve">This screen is intentionally left almost blank</t>
+    <t xml:space="preserve">Confirm your choices by tapping Next above.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person 1:  {{ data.person_1_name }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status: {{ data.mstat }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person 2:  {{ data.person_2_name }}</t>
   </si>
   <si>
     <t xml:space="preserve">assign</t>
@@ -535,7 +544,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -596,10 +605,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -648,10 +653,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -681,10 +682,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -802,11 +799,11 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.01171875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.83"/>
@@ -869,11 +866,11 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="22.01"/>
@@ -950,17 +947,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1033,10 +1030,8 @@
       <c r="C7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
@@ -1048,10 +1043,8 @@
       <c r="C8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
@@ -1063,76 +1056,55 @@
       <c r="C9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1152,11 +1124,11 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.49"/>
@@ -1164,7 +1136,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1193,7 +1165,7 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1214,8 +1186,8 @@
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1223,13 +1195,13 @@
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1249,15 +1221,15 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="46.17"/>
   </cols>
@@ -1266,10 +1238,10 @@
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1293,19 +1265,19 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,25 +1295,25 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="24"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,29 +1333,29 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="22" t="n">
+      <c r="D12" s="21" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="22" t="n">
+      <c r="D13" s="21" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1393,29 +1365,29 @@
       <c r="C15" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="26"/>
+      <c r="B27" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="27"/>
+      <c r="B29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="28"/>
+      <c r="B30" s="26"/>
     </row>
     <row r="31" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="28"/>
+      <c r="B31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="28"/>
+      <c r="B32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="28"/>
+      <c r="B33" s="26"/>
     </row>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="28"/>
+      <c r="B34" s="26"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1433,20 +1405,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.84765625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.9140625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="48.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="59.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="44.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="62.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.85"/>
   </cols>
   <sheetData>
@@ -1454,13 +1426,13 @@
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -1472,7 +1444,7 @@
       <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="29" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -1492,9 +1464,9 @@
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1598,7 +1570,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="30" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -1629,72 +1601,72 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="43.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26" t="s">
+    <row r="12" customFormat="false" ht="60.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34" t="s">
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="22"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,7 +1696,7 @@
       <c r="D17" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="33" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1749,7 +1721,7 @@
       <c r="D18" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="33" t="s">
         <v>70</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -1771,45 +1743,78 @@
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="0" t="s">
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1828,69 +1833,69 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="40.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="40.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.78"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="D1" s="35" t="s">
         <v>79</v>
       </c>
+      <c r="E1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>82</v>
+      </c>
       <c r="H1" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>58</v>
@@ -1898,23 +1903,23 @@
       <c r="C3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="41" t="s">
+      <c r="D3" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="E3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>88</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="J3" s="3"/>
     </row>
@@ -1924,39 +1929,39 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="22"/>
+      <c r="D5" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
@@ -1970,74 +1975,74 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="I7" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="D8" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>88</v>
+      <c r="I8" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2057,19 +2062,19 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8046875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -2079,31 +2084,31 @@
       <c r="F1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>98</v>
+      <c r="A3" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>98</v>
+      <c r="A4" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>100</v>
+      <c r="B5" s="42" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
